--- a/Prototype/PHPSCRIPTS/SamanAndrey/ForecastTemplate2.xlsx
+++ b/Prototype/PHPSCRIPTS/SamanAndrey/ForecastTemplate2.xlsx
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,9 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,12 +402,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
@@ -413,7 +418,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -431,5 +436,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>